--- a/Gestion de projet/Mécaniques du jeu/Gestion des troupes.xlsx
+++ b/Gestion de projet/Mécaniques du jeu/Gestion des troupes.xlsx
@@ -6,18 +6,20 @@
     <sheet state="visible" name="Stats" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Terrain de combat" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Touchés par tour" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Simulation" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Simulation tour" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="BonusMalus troupes" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Algorithme" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Stats!$A$1:$K$11</definedName>
-    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'Touchés par tour'!$A$54:$D$63</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Stats!$A$1:$K$10</definedName>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'Touchés par tour'!$A$50:$D$58</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="95">
   <si>
     <t>Nom Troupe</t>
   </si>
@@ -82,9 +84,6 @@
     <t>Défense</t>
   </si>
   <si>
-    <t>Espions</t>
-  </si>
-  <si>
     <t>Araignées</t>
   </si>
   <si>
@@ -139,13 +138,200 @@
     <t>Total dégats sur tous les tours</t>
   </si>
   <si>
-    <t>Total vie = VIE + AGILITE * 0.3</t>
-  </si>
-  <si>
-    <t>Total dégats = somme des dégats</t>
-  </si>
-  <si>
-    <t>Total vie - Total Dégats = Vie restante</t>
+    <t>Poids total = 30</t>
+  </si>
+  <si>
+    <t>Deck attaque</t>
+  </si>
+  <si>
+    <t>Quantité</t>
+  </si>
+  <si>
+    <t>Poids total</t>
+  </si>
+  <si>
+    <t>Tour 2 Attaquant</t>
+  </si>
+  <si>
+    <t>Tour 2 Défenseur</t>
+  </si>
+  <si>
+    <t>Deck défense</t>
+  </si>
+  <si>
+    <t>Dragon : 3</t>
+  </si>
+  <si>
+    <t>Boucle 1</t>
+  </si>
+  <si>
+    <t>Aigle : 1</t>
+  </si>
+  <si>
+    <t>2 Dragons : 1/2</t>
+  </si>
+  <si>
+    <t>2 Ours : 2/3</t>
+  </si>
+  <si>
+    <t>Araignée : 2</t>
+  </si>
+  <si>
+    <t>2 Lanceur : 2/3</t>
+  </si>
+  <si>
+    <t>2 Dragon : 1/2</t>
+  </si>
+  <si>
+    <t>Lanceur de foudre : 3</t>
+  </si>
+  <si>
+    <t>2 Araignées : 1/2</t>
+  </si>
+  <si>
+    <t>Total : 6</t>
+  </si>
+  <si>
+    <t>Boucle 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boucle 2 </t>
+  </si>
+  <si>
+    <t>2 Lanceurs : 1/3</t>
+  </si>
+  <si>
+    <t>2 Ours : 1/3</t>
+  </si>
+  <si>
+    <t>2 Dragon : 0/2</t>
+  </si>
+  <si>
+    <t>Total :10</t>
+  </si>
+  <si>
+    <t>2 Lanceur : 1/3</t>
+  </si>
+  <si>
+    <t>Total : 12</t>
+  </si>
+  <si>
+    <t>Total :</t>
+  </si>
+  <si>
+    <t>1 Ours : 1/3</t>
+  </si>
+  <si>
+    <t>Total : 13</t>
+  </si>
+  <si>
+    <t>Vie + Agilité * 0.3</t>
+  </si>
+  <si>
+    <t>Total dégats tour 1 :</t>
+  </si>
+  <si>
+    <t>Début tour 1</t>
+  </si>
+  <si>
+    <t>Total vie tour 1 :</t>
+  </si>
+  <si>
+    <t>-30% agilité</t>
+  </si>
+  <si>
+    <t>Fin tour 1</t>
+  </si>
+  <si>
+    <t>2 Aigles morts</t>
+  </si>
+  <si>
+    <t>Après</t>
+  </si>
+  <si>
+    <t>Total dégats tour 2 :</t>
+  </si>
+  <si>
+    <t>Début tour 2</t>
+  </si>
+  <si>
+    <t>Total vie tour 2 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- 30% agilité </t>
+  </si>
+  <si>
+    <t>Fin tour 2</t>
+  </si>
+  <si>
+    <t>2 Araignées mortes</t>
+  </si>
+  <si>
+    <t>Total dégats tour 3 :</t>
+  </si>
+  <si>
+    <t>Début tour 3</t>
+  </si>
+  <si>
+    <t>Fin tour 3</t>
+  </si>
+  <si>
+    <t>Règle : On elève 1 de vie à chaque troupe pour chaque boucle puis si le restant d'une boucle est inférieur au nombre d'unité restante on enlève d'abord aux unités qui survivraient puis aux unités les moins longues à former</t>
+  </si>
+  <si>
+    <t>Lancier</t>
+  </si>
+  <si>
+    <t>Aigle</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>Nombre Malus</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Total vie</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> = VIE + AGILITE * 0.3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b/>
+        <color theme="1"/>
+      </rPr>
+      <t>Total dégats</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> = DEGATS * Aléatoire %</t>
+    </r>
+  </si>
+  <si>
+    <t>Total vie - Total Dégats = Total vie restante</t>
+  </si>
+  <si>
+    <t>% de raté</t>
   </si>
 </sst>
 </file>
@@ -169,15 +355,21 @@
     </font>
     <font>
       <b/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <b/>
+      <color rgb="FF38761D"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +386,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -236,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -258,9 +456,6 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -280,14 +475,11 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -304,23 +496,43 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -379,21 +591,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Stats!$A$2:$A$10</c:f>
+              <c:f>Stats!$A$2:$A$9</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$C$2:$C$10</c:f>
+              <c:f>Stats!$C$2:$C$9</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1137962674"/>
-        <c:axId val="1939300881"/>
+        <c:axId val="1631502990"/>
+        <c:axId val="1715290630"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1137962674"/>
+        <c:axId val="1631502990"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -445,10 +657,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1939300881"/>
+        <c:crossAx val="1715290630"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1939300881"/>
+        <c:axId val="1715290630"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -523,7 +735,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1137962674"/>
+        <c:crossAx val="1631502990"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -604,21 +816,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Stats!$A$2:$A$10</c:f>
+              <c:f>Stats!$A$2:$A$9</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$D$2:$D$10</c:f>
+              <c:f>Stats!$D$2:$D$9</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="715765380"/>
-        <c:axId val="1643319217"/>
+        <c:axId val="2058126994"/>
+        <c:axId val="240158814"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="715765380"/>
+        <c:axId val="2058126994"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -670,10 +882,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1643319217"/>
+        <c:crossAx val="240158814"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1643319217"/>
+        <c:axId val="240158814"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -748,7 +960,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="715765380"/>
+        <c:crossAx val="2058126994"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -829,21 +1041,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Stats!$A$2:$A$10</c:f>
+              <c:f>Stats!$A$2:$A$9</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$E$2:$E$10</c:f>
+              <c:f>Stats!$E$2:$E$9</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1740696396"/>
-        <c:axId val="1173802512"/>
+        <c:axId val="1694891486"/>
+        <c:axId val="985195855"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1740696396"/>
+        <c:axId val="1694891486"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -895,10 +1107,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1173802512"/>
+        <c:crossAx val="985195855"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1173802512"/>
+        <c:axId val="985195855"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -973,7 +1185,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1740696396"/>
+        <c:crossAx val="1694891486"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1054,21 +1266,21 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Stats!$A$2:$A$10</c:f>
+              <c:f>Stats!$A$2:$A$9</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$F$2:$F$10</c:f>
+              <c:f>Stats!$F$2:$F$9</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1423979026"/>
-        <c:axId val="674695780"/>
+        <c:axId val="2072684737"/>
+        <c:axId val="695769081"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1423979026"/>
+        <c:axId val="2072684737"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1120,10 +1332,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="674695780"/>
+        <c:crossAx val="695769081"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="674695780"/>
+        <c:axId val="695769081"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1198,7 +1410,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1423979026"/>
+        <c:crossAx val="2072684737"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1236,16 +1448,16 @@
           <c:order val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$A$52</c:f>
+              <c:f>Stats!$A$51</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1403899597"/>
-        <c:axId val="214735384"/>
+        <c:axId val="1229341114"/>
+        <c:axId val="1582252863"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1403899597"/>
+        <c:axId val="1229341114"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1297,10 +1509,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214735384"/>
+        <c:crossAx val="1582252863"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214735384"/>
+        <c:axId val="1582252863"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1312,7 +1524,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="1403899597"/>
+        <c:crossAx val="1229341114"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1378,22 +1590,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Touchés par tour'!$B$55:$B$63</c:f>
+              <c:f>'Touchés par tour'!$B$51:$B$58</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Touchés par tour'!$C$55:$C$63</c:f>
+              <c:f>'Touchés par tour'!$C$51:$C$58</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1847508276"/>
-        <c:axId val="1498427925"/>
+        <c:axId val="698474474"/>
+        <c:axId val="1976339807"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1847508276"/>
+        <c:axId val="698474474"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1445,10 +1657,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1498427925"/>
+        <c:crossAx val="1976339807"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1498427925"/>
+        <c:axId val="1976339807"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,7 +1735,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1847508276"/>
+        <c:crossAx val="698474474"/>
       </c:valAx>
       <c:lineChart>
         <c:varyColors val="0"/>
@@ -1560,22 +1772,22 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Touchés par tour'!$B$55:$B$63</c:f>
+              <c:f>'Touchés par tour'!$B$51:$B$58</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Touchés par tour'!$D$55:$D$63</c:f>
+              <c:f>'Touchés par tour'!$D$51:$D$58</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1277525369"/>
-        <c:axId val="419846431"/>
+        <c:axId val="2033317367"/>
+        <c:axId val="1790123342"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1277525369"/>
+        <c:axId val="2033317367"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1599,10 +1811,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="419846431"/>
+        <c:crossAx val="1790123342"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="419846431"/>
+        <c:axId val="1790123342"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1677,7 +1889,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1277525369"/>
+        <c:crossAx val="2033317367"/>
         <c:crosses val="max"/>
       </c:valAx>
     </c:plotArea>
@@ -1710,7 +1922,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5210175" cy="3914775"/>
@@ -1735,7 +1947,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3914775"/>
@@ -1760,7 +1972,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5210175" cy="3533775"/>
@@ -1785,7 +1997,7 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
@@ -1810,7 +2022,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5210175" cy="3219450"/>
@@ -1844,7 +2056,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
@@ -1869,6 +2081,14 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -2149,11 +2369,11 @@
         <v>1.0</v>
       </c>
       <c r="J2" s="6">
-        <f t="shared" ref="J2:J10" si="1">C2+D2+E2*0.5+F2*0.75+G2*0.75</f>
+        <f t="shared" ref="J2:J9" si="1">C2+D2+E2*0.5+F2*0.75+G2*0.75</f>
         <v>5</v>
       </c>
       <c r="K2" s="6">
-        <f t="shared" ref="K2:K11" si="2">SUM(C2:G2)</f>
+        <f t="shared" ref="K2:K10" si="2">SUM(C2:G2)</f>
         <v>6</v>
       </c>
       <c r="L2" s="6">
@@ -2325,16 +2545,16 @@
         <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D7" s="4">
         <v>3.0</v>
       </c>
       <c r="E7" s="4">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="F7" s="4">
         <v>2.0</v>
@@ -2350,7 +2570,7 @@
       </c>
       <c r="J7" s="6">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="K7" s="6">
         <f t="shared" si="2"/>
@@ -2362,10 +2582,10 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4">
         <v>2.0</v>
@@ -2374,30 +2594,30 @@
         <v>3.0</v>
       </c>
       <c r="E8" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="F8" s="4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="G8" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="H8" s="4">
-        <v>10.0</v>
+        <v>13.0</v>
       </c>
       <c r="I8" s="5">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="K8" s="6">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L8" s="6">
-        <v>42.0</v>
+        <v>57.0</v>
       </c>
     </row>
     <row r="9">
@@ -2405,16 +2625,16 @@
         <v>24</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C9" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="D9" s="4">
         <v>2.0</v>
       </c>
-      <c r="D9" s="4">
+      <c r="E9" s="4">
         <v>3.0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1.0</v>
       </c>
       <c r="F9" s="4">
         <v>3.0</v>
@@ -2423,194 +2643,154 @@
         <v>1.0</v>
       </c>
       <c r="H9" s="4">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="I9" s="5">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="J9" s="6">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L9" s="6">
-        <v>57.0</v>
+        <v>38.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>3.0</v>
+      <c r="B10" s="7"/>
+      <c r="C10" s="6">
+        <f t="shared" ref="C10:J10" si="3">SUM(C2:C9)</f>
+        <v>16</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="3"/>
+        <v>24</v>
       </c>
       <c r="J10" s="6">
-        <f t="shared" si="1"/>
-        <v>9.5</v>
+        <f t="shared" si="3"/>
+        <v>57.25</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-      <c r="L10" s="6">
-        <v>38.0</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="L10" s="7"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="6">
-        <f t="shared" ref="C11:J11" si="3">SUM(C2:C10)</f>
-        <v>17</v>
-      </c>
-      <c r="D11" s="6">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="E11" s="6">
-        <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" si="3"/>
-        <v>13</v>
-      </c>
-      <c r="H11" s="6">
-        <f t="shared" si="3"/>
-        <v>54</v>
-      </c>
-      <c r="I11" s="6">
-        <f t="shared" si="3"/>
-        <v>28</v>
-      </c>
-      <c r="J11" s="6">
-        <f t="shared" si="3"/>
-        <v>65.75</v>
-      </c>
-      <c r="K11" s="6">
-        <f t="shared" si="2"/>
-        <v>81</v>
-      </c>
-      <c r="L11" s="8"/>
+      <c r="A11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="O11" s="9"/>
     </row>
     <row r="12">
-      <c r="A12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="O12" s="10"/>
+      <c r="A12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="O12" s="9"/>
     </row>
     <row r="13">
-      <c r="A13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="O13" s="10"/>
+      <c r="A13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="O13" s="9"/>
     </row>
     <row r="14">
-      <c r="A14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="O14" s="10"/>
+      <c r="A14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="O14" s="9"/>
     </row>
     <row r="15">
-      <c r="A15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="O15" s="10"/>
+      <c r="A15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="O15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="O16" s="10"/>
+      <c r="A16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="O16" s="9"/>
     </row>
     <row r="17">
-      <c r="A17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="O17" s="10"/>
+      <c r="A17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="O17" s="9"/>
     </row>
     <row r="18">
-      <c r="A18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="O18" s="10"/>
+      <c r="A18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="O18" s="9"/>
     </row>
     <row r="19">
-      <c r="A19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="O19" s="10"/>
+      <c r="A19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="O19" s="9"/>
     </row>
     <row r="20">
-      <c r="A20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="O20" s="10"/>
-    </row>
-    <row r="21">
-      <c r="O21" s="10"/>
+      <c r="O20" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$K$11"/>
+  <autoFilter ref="$A$1:$K$10"/>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="B2:B10">
+    <dataValidation type="list" allowBlank="1" sqref="B2:B9">
       <formula1>"Attaque,Défense,Hybride"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2633,25 +2813,25 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="11"/>
+      <c r="A1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="10"/>
     </row>
     <row r="2">
       <c r="A2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="5" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>6</v>
@@ -2664,26 +2844,26 @@
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="13"/>
+      <c r="H3" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="12"/>
       <c r="J3" s="4" t="s">
         <v>12</v>
       </c>
@@ -2698,26 +2878,26 @@
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="13" t="s">
+      <c r="F4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="G4" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="H4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="12"/>
       <c r="J4" s="4" t="s">
         <v>15</v>
       </c>
@@ -2732,26 +2912,26 @@
       <c r="A5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="E5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="13" t="s">
+      <c r="F5" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="G5" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="H5" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="12"/>
       <c r="J5" s="4" t="s">
         <v>17</v>
       </c>
@@ -2766,18 +2946,18 @@
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="13"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="12"/>
       <c r="J6" s="4" t="s">
         <v>18</v>
       </c>
@@ -2792,26 +2972,26 @@
       <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="13"/>
+      <c r="H7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="12"/>
       <c r="J7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2824,129 +3004,99 @@
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="13" t="s">
+      <c r="E8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="13"/>
+      <c r="H8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="12"/>
       <c r="J8" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K8" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L8" s="4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I9" s="13"/>
+        <v>21</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K9" s="4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="L9" s="4">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="13" t="s">
+      <c r="E10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="13"/>
+      <c r="H10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="12"/>
       <c r="J10" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K10" s="4">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="L10" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="L11" s="4">
         <v>3.0</v>
       </c>
     </row>
@@ -2966,20 +3116,20 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="16.71"/>
-    <col customWidth="1" min="10" max="10" width="20.57"/>
-    <col customWidth="1" min="13" max="14" width="27.71"/>
+    <col customWidth="1" min="9" max="9" width="20.57"/>
+    <col customWidth="1" min="12" max="13" width="27.71"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="A1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2">
-      <c r="A2" s="8"/>
+      <c r="A2" s="7"/>
       <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
@@ -2996,16 +3146,13 @@
         <v>19</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3">
@@ -3013,31 +3160,28 @@
         <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
@@ -3045,64 +3189,58 @@
         <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="12"/>
+        <v>36</v>
+      </c>
+      <c r="J4" s="11"/>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6">
@@ -3110,31 +3248,28 @@
         <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>37</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
@@ -3142,307 +3277,277 @@
         <v>19</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
     </row>
     <row r="13">
-      <c r="A13" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="8"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="B14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J14" s="12"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>37</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>37</v>
-      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
       <c r="H15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="4"/>
+      <c r="I15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="E17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="G17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="I17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J17" s="4"/>
+        <v>37</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>37</v>
@@ -3466,9 +3571,6 @@
         <v>37</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3477,31 +3579,28 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>37</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21">
@@ -3509,1066 +3608,853 @@
         <v>24</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>38</v>
+      <c r="A23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="7"/>
+      <c r="B24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="A25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="8"/>
-      <c r="B26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="5" t="s">
+      <c r="A26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>36</v>
+      <c r="B26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>37</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H31" s="4" t="s">
         <v>37</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J33" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="35">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J35" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J35" s="4" t="s">
-        <v>38</v>
+      <c r="K35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C36" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D36" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="I36" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J36" s="17">
+        <f t="shared" ref="J36:J43" si="1">sum(B36:I36)</f>
+        <v>8</v>
+      </c>
+      <c r="K36" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="L36" s="18" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="15" t="s">
-        <v>39</v>
+      <c r="A37" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D37" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E37" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G37" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H37" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="I37" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J37" s="17">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K37" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="L37" s="18" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="16"/>
-      <c r="B38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="5" t="s">
+      <c r="A38" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I38" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="K38" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M38" s="18" t="s">
-        <v>7</v>
+      <c r="B38" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C38" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E38" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="G38" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="H38" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="I38" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="J38" s="17">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K38" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="L38" s="18" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B39" s="4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C39" s="4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="D39" s="4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E39" s="4">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="F39" s="4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G39" s="4">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="H39" s="4">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I39" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="J39" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K39" s="19">
-        <f t="shared" ref="K39:K47" si="1">sum(B39:J39)</f>
-        <v>9</v>
-      </c>
-      <c r="L39" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M39" s="20" t="s">
-        <v>14</v>
+        <v>2.0</v>
+      </c>
+      <c r="J39" s="17">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="K39" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="L39" s="18">
+        <v>3.0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B40" s="4">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="C40" s="4">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D40" s="4">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="E40" s="4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="F40" s="4">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="G40" s="4">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H40" s="4">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="I40" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="J40" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K40" s="19">
+        <v>3.0</v>
+      </c>
+      <c r="J40" s="17">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="L40" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M40" s="20" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="K40" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="L40" s="18">
+        <v>3.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B41" s="4">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="C41" s="4">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="D41" s="4">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="E41" s="4">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="F41" s="4">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="G41" s="4">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="H41" s="4">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
       <c r="I41" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="J41" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="K41" s="19">
+        <v>6.0</v>
+      </c>
+      <c r="J41" s="17">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="L41" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M41" s="20" t="s">
-        <v>16</v>
+        <v>51</v>
+      </c>
+      <c r="K41" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="L41" s="19">
+        <v>10.0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B42" s="4">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="C42" s="4">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="D42" s="4">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E42" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="G42" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="H42" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="I42" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="J42" s="17">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="K42" s="4">
         <v>3.0</v>
       </c>
-      <c r="F42" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="G42" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="H42" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="I42" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="J42" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="K42" s="19">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-      <c r="L42" s="4">
-        <v>1.0</v>
-      </c>
-      <c r="M42" s="20">
-        <v>3.0</v>
+      <c r="L42" s="19">
+        <v>10.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B43" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="C43" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="D43" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="E43" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="G43" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="H43" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="I43" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="J43" s="17">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="K43" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="L43" s="18">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="6">
+        <f t="shared" ref="B44:I44" si="2">sum(B36:B43)</f>
+        <v>24</v>
+      </c>
+      <c r="C44" s="6">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="D44" s="6">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="E44" s="6">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="F44" s="6">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="G44" s="6">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="H44" s="6">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="I44" s="6">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="5">
+        <v>18.0</v>
+      </c>
+      <c r="C54" s="4">
         <v>3.0</v>
       </c>
-      <c r="C43" s="4">
+      <c r="D54" s="5">
         <v>3.0</v>
-      </c>
-      <c r="D43" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="E43" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="F43" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="G43" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="H43" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="I43" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="J43" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="K43" s="19">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="L43" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="M43" s="20">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B44" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="C44" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="D44" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="E44" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F44" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="G44" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="H44" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="I44" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="J44" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="K44" s="19">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="L44" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="M44" s="20">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="C45" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="D45" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="E45" s="4">
-        <v>9.0</v>
-      </c>
-      <c r="F45" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="G45" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="H45" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="I45" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="J45" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="K45" s="19">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-      <c r="L45" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="M45" s="21">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B46" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="C46" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="D46" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="E46" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F46" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="G46" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="H46" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="I46" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="J46" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="K46" s="19">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="L46" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="M46" s="21">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="C47" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="D47" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="E47" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="F47" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="G47" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="H47" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="I47" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="J47" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="K47" s="19">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="L47" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="M47" s="20">
-        <v>15.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B48" s="6">
-        <f t="shared" ref="B48:J48" si="2">sum(B39:B47)</f>
-        <v>30</v>
-      </c>
-      <c r="C48" s="6">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="D48" s="6">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="E48" s="6">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="F48" s="6">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="G48" s="6">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="H48" s="6">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="I48" s="6">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-      <c r="J48" s="6">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="6">
-        <v>9.0</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="B55" s="5">
+        <v>24.0</v>
+      </c>
+      <c r="C55" s="4">
+        <v>3.0</v>
       </c>
       <c r="D55" s="5">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B56" s="6">
-        <v>12.0</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>16</v>
+        <v>24</v>
+      </c>
+      <c r="B56" s="5">
+        <v>34.0</v>
+      </c>
+      <c r="C56" s="4">
+        <v>15.0</v>
       </c>
       <c r="D56" s="5">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57" s="6">
-        <v>12.0</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>16</v>
+        <v>21</v>
+      </c>
+      <c r="B57" s="5">
+        <v>48.0</v>
+      </c>
+      <c r="C57" s="4">
+        <v>10.0</v>
       </c>
       <c r="D57" s="5">
-        <v>2.0</v>
-      </c>
+        <v>4.0</v>
+      </c>
+      <c r="M57" s="21"/>
+      <c r="N57" s="12"/>
     </row>
     <row r="58">
       <c r="A58" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58" s="6">
-        <v>21.0</v>
-      </c>
-      <c r="C58" s="20">
-        <v>3.0</v>
+        <v>23</v>
+      </c>
+      <c r="B58" s="5">
+        <v>51.0</v>
+      </c>
+      <c r="C58" s="4">
+        <v>13.0</v>
       </c>
       <c r="D58" s="5">
-        <v>3.0</v>
-      </c>
+        <v>5.0</v>
+      </c>
+      <c r="M58" s="9"/>
+      <c r="N58" s="12"/>
     </row>
     <row r="59">
-      <c r="A59" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B59" s="6">
-        <v>27.0</v>
-      </c>
-      <c r="C59" s="21">
-        <v>5.0</v>
-      </c>
-      <c r="D59" s="5">
-        <v>4.0</v>
-      </c>
+      <c r="M59" s="9"/>
+      <c r="N59" s="12"/>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B60" s="6">
-        <v>38.0</v>
-      </c>
-      <c r="C60" s="21">
-        <v>13.0</v>
-      </c>
-      <c r="D60" s="5">
-        <v>3.0</v>
-      </c>
+      <c r="M60" s="9"/>
+      <c r="N60" s="12"/>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B61" s="6">
-        <v>42.0</v>
-      </c>
-      <c r="C61" s="21">
-        <v>10.0</v>
-      </c>
-      <c r="D61" s="5">
-        <v>4.0</v>
-      </c>
+      <c r="M61" s="9"/>
+      <c r="N61" s="12"/>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B62" s="6">
-        <v>42.0</v>
-      </c>
-      <c r="C62" s="24">
-        <v>10.0</v>
-      </c>
-      <c r="D62" s="5">
-        <v>4.0</v>
-      </c>
-      <c r="N62" s="25"/>
-      <c r="O62" s="13"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="12"/>
     </row>
     <row r="63">
-      <c r="A63" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B63" s="6">
-        <v>57.0</v>
-      </c>
-      <c r="C63" s="21">
-        <v>15.0</v>
-      </c>
-      <c r="D63" s="5">
-        <v>5.0</v>
-      </c>
-      <c r="N63" s="10"/>
-      <c r="O63" s="13"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="12"/>
     </row>
     <row r="64">
-      <c r="N64" s="10"/>
-      <c r="O64" s="13"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="12"/>
     </row>
     <row r="65">
-      <c r="N65" s="10"/>
-      <c r="O65" s="13"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="12"/>
     </row>
     <row r="66">
-      <c r="N66" s="10"/>
-      <c r="O66" s="13"/>
-    </row>
-    <row r="67">
-      <c r="N67" s="10"/>
-      <c r="O67" s="13"/>
-    </row>
-    <row r="68">
-      <c r="N68" s="10"/>
-      <c r="O68" s="13"/>
-    </row>
-    <row r="69">
-      <c r="N69" s="10"/>
-      <c r="O69" s="13"/>
-    </row>
-    <row r="70">
-      <c r="N70" s="10"/>
-      <c r="O70" s="13"/>
-    </row>
-    <row r="71">
-      <c r="N71" s="10"/>
-      <c r="O71" s="13"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$54:$D$63">
-    <sortState ref="A54:D63">
-      <sortCondition ref="B54:B63"/>
+  <autoFilter ref="$A$50:$D$58">
+    <sortState ref="A50:D58">
+      <sortCondition ref="B50:B58"/>
     </sortState>
   </autoFilter>
   <drawing r:id="rId1"/>
@@ -4584,20 +4470,1311 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="18.71"/>
+    <col customWidth="1" min="5" max="5" width="12.71"/>
+    <col customWidth="1" min="6" max="8" width="16.29"/>
+    <col customWidth="1" min="9" max="9" width="12.71"/>
+    <col customWidth="1" min="10" max="10" width="17.43"/>
+    <col customWidth="1" min="14" max="14" width="11.0"/>
+    <col customWidth="1" min="15" max="15" width="16.57"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="O1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="R2" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="S2" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" ref="D3:D6" si="1">B3*C3</f>
+        <v>10</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="R3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="S3" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="S4" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>4.0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="R5" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="S5" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="O6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="R6" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="S6" s="4">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="F7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="O7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="R7" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="S7" s="4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="4"/>
+      <c r="F8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="O8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="R8" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="S8" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="U8" s="23"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="F9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="O9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="R9" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="S9" s="4">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="F10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="F11" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+    </row>
+    <row r="13">
+      <c r="C13" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="25">
+        <f>sum(D3:D12)</f>
+        <v>30</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="M13" s="25">
+        <f>M3+M4+M5</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="G14" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="12">
+        <f>4+2+4+6</f>
+        <v>16</v>
+      </c>
+      <c r="E16" s="8">
+        <f>2+2+4+6</f>
+        <v>14</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="J16" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="M16" s="12">
+        <f t="shared" ref="M16:M17" si="2">6+4+12</f>
+        <v>22</v>
+      </c>
+      <c r="N16" s="12">
+        <f t="shared" ref="N16:N17" si="3">2+2+12</f>
+        <v>16</v>
+      </c>
+      <c r="O16" s="26">
+        <f t="shared" ref="O16:O17" si="4">round(M16+N16*0.3,0)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="12">
+        <v>14.0</v>
+      </c>
+      <c r="E17" s="12">
+        <v>12.0</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M17" s="12">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="N17" s="12">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="O17" s="26">
+        <f t="shared" si="4"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="11"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="8">
+        <f>round(6+6+4,0)</f>
+        <v>16</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="12">
+        <v>16.0</v>
+      </c>
+      <c r="E19" s="8">
+        <f>2+4+6</f>
+        <v>12</v>
+      </c>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="J19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="8">
+        <f>3+3+2*4</f>
+        <v>14</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="M19" s="12">
+        <f>6+4+12</f>
+        <v>22</v>
+      </c>
+      <c r="N19" s="12">
+        <f>2+2+12</f>
+        <v>16</v>
+      </c>
+      <c r="O19" s="26">
+        <f>round(M19+N19*0.3,0)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="8">
+        <f>round(18-16*0.3,0)</f>
+        <v>13</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="27">
+        <v>6.0</v>
+      </c>
+      <c r="E20" s="12">
+        <v>8.0</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="8">
+        <f>round(14-12*0.3,0)</f>
+        <v>10</v>
+      </c>
+      <c r="L20" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M20" s="12">
+        <v>9.0</v>
+      </c>
+      <c r="N20" s="12">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="11"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="J22" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="M22" s="12">
+        <v>9.0</v>
+      </c>
+      <c r="N22" s="12">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C29" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="D29" s="4">
+        <f t="shared" ref="D29:D32" si="5">B29*C29</f>
+        <v>10</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="L29" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="M29" s="4">
+        <f t="shared" ref="M29:M32" si="6">K29*L29</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K30" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="L30" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="M30" s="4">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="C31" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D31" s="4">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K31" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="L31" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="M31" s="4">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C32" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D32" s="4">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="L32" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="M32" s="4">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+    </row>
+    <row r="39">
+      <c r="C39" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D39" s="25">
+        <f>sum(D29:D38)</f>
+        <v>30</v>
+      </c>
+      <c r="L39" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="M39" s="25">
+        <f>M29+M30+M31</f>
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F16:F18 G16:H19 O16:O19 F20">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(F16))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="17.14"/>
+    <col customWidth="1" min="9" max="9" width="17.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
     <row r="2">
-      <c r="A2" s="26" t="s">
-        <v>41</v>
+      <c r="A2" s="7"/>
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="s">
-        <v>42</v>
+      <c r="A3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H3" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="29">
+        <f> 10%</f>
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H8" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="29">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="E10" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="29">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="5">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="38.86"/>
+    <col customWidth="1" min="2" max="2" width="21.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="11" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
